--- a/6月/途礼商城/开发环境/结合测试/途礼商城 (购物车-王倩）.xlsx
+++ b/6月/途礼商城/开发环境/结合测试/途礼商城 (购物车-王倩）.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="67">
   <si>
     <t>撰写人：</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -211,6 +211,141 @@
 3.点击 "添加到购物车"按钮,该商品成功添加到购物车
 4.在该商品详情页面顶部导航栏右侧，点击购物车中删除按钮
 （ps：但返回到首页，点击购物车中的删除按钮，该按钮焦点被触发商品删除成功）注：如果选择2个以上的商品到购物车，返回首页点击一种商品信息的删除按钮，结果所有商品全部删除）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品金额/小计/合计显示正确</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品金额/小计/合计计算正确</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个公司对应2种商品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.将杨州市飞杰旅游用品有限公司：一次性拖鞋添加至购物车
+2.将扬州喜行旅游用品有限公司：一次性拖鞋添加至购物车
+3.点击查看按钮
+（PS：其它商品也存在上述bug）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个公司对应一种商品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品金额/小计/合计显示正确</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.将扬州喜行旅游用品有限公司：梳子添加至购物车
+2.将黄山古诗里生态农业科技园有限公司：猴魁袋泡茶添加至购物车
+3.点击查看按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.将杨州市飞杰旅游用品有限公司：一次性拖鞋添加至购物车
+2.点击查看按钮
+3.将商品数量随意修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.将扬州喜行旅游用品有限公司：梳子添加至购物车
+2.将黄山古诗里生态农业科技园有限公司：猴魁袋泡茶添加至购物车
+3.点击查看按钮
+4.将商品数量随意修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.将杨州市飞杰旅游用品有限公司：一次性拖鞋添加至购物车
+2.将扬州喜行旅游用品有限公司：一次性拖鞋添加至购物车
+3.将苏州星月家纺有限公司：牙膏
+4.将上海景勤酒店用品有限公司：烟缸，扫把，消毒柜
+5.将上海衡臻实业有限公司：指示牌左移
+6.点击查看按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.将杨州市飞杰旅游用品有限公司：一次性拖鞋添加至购物车
+2.点击查看按钮
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品金额/小计/合计显示正确</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品金额/小计/合计计算正确</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.将杨州市飞杰旅游用品有限公司：一次性拖鞋添加至购物车
+2.将扬州喜行旅游用品有限公司：一次性拖鞋添加至购物车
+3.将苏州星月家纺有限公司：牙膏
+4.将上海景勤酒店用品有限公司：烟缸，扫把，消毒柜
+5.将上海衡臻实业有限公司：指示牌左移
+6.将湖南福悦床具有限公司：床垫
+6.点击查看按钮
+7.将商品数量随意修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.将茂名粤阳日用品有限公司：安安金纯薰衣草黑亮倍柔洗发露(升级产品)(750)/瓶 
+2.将茂名粤阳日用品有限公司：安安金纯洗发液（B级店）橄榄油去屑柔顺洗发露，750g
+3.将上海衡臻实业有限公司：左移
+4.将上海衡臻实业有限公司：预防蚊虫
+5.点击查看按钮
+6.将商品数量随意修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品金额/小计/合计计算正确</t>
+  </si>
+  <si>
+    <t>商品金额/小计/合计计算正确</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.将杨州市飞杰旅游用品有限公司：一次性拖鞋添加至购物车
+2.将扬州喜行旅游用品有限公司：一次性拖鞋添加至购物车
+3.点击查看按钮
+4.将商品数量随意修改
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品金额/小计/合计计算正确</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.将茂名粤阳日用品有限公司：安安金纯薰衣草黑亮倍柔洗发露(升级产品)(750)/瓶 
+2.将茂名粤阳日用品有限公司：安安金纯洗发液（B级店）橄榄油去屑柔顺洗发露，750g
+3.将上海衡臻实业有限公司：左移
+4.将上海衡臻实业有限公司：预防蚊虫
+5.点击查看按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.将茂名粤阳日用品有限公司：安安金纯薰衣草黑亮倍柔洗发露(升级产品)(750)/瓶 
+2.将茂名粤阳日用品有限公司：安安金纯洗发液（B级店）橄榄油去屑
+3.将上海梦百合家居科技有限公司：1.5米恬逸弹簧床垫（梦百合）1500*2000*280
+4.点击查看按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.将茂名粤阳日用品有限公司：安安金纯薰衣草黑亮倍柔洗发露(升级产品)(750)/瓶 
+2.将茂名粤阳日用品有限公司：安安金纯洗发液（B级店）橄榄油去屑
+3.将上海梦百合家居科技有限公司：1.5米恬逸弹簧床垫（梦百合）1500*2000*280
+4.点击查看按钮
+5.将商品数量随意修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品金额/小计/合计显示正确</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -406,7 +541,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -426,17 +561,11 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -499,9 +628,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -512,6 +638,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -815,12 +953,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:GK34"/>
+  <dimension ref="A1:GK39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -828,10 +966,11 @@
     <col min="1" max="1" width="22.25" customWidth="1"/>
     <col min="2" max="2" width="35" customWidth="1"/>
     <col min="3" max="3" width="19.25" customWidth="1"/>
-    <col min="4" max="4" width="41.5" style="21" customWidth="1"/>
-    <col min="5" max="5" width="34.625" style="34" customWidth="1"/>
-    <col min="6" max="6" width="28.25" style="34" customWidth="1"/>
-    <col min="7" max="7" width="10.375" customWidth="1"/>
+    <col min="4" max="4" width="63.875" style="19" customWidth="1"/>
+    <col min="5" max="5" width="34.625" style="31" customWidth="1"/>
+    <col min="6" max="6" width="28.25" style="31" customWidth="1"/>
+    <col min="7" max="7" width="15.375" customWidth="1"/>
+    <col min="8" max="8" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:193" x14ac:dyDescent="0.15">
@@ -841,7 +980,6 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="33"/>
     </row>
     <row r="2" spans="1:193" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -850,7 +988,6 @@
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="33"/>
     </row>
     <row r="3" spans="1:193" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
@@ -859,16 +996,14 @@
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="33"/>
-    </row>
-    <row r="4" spans="1:193" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:193" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="33"/>
     </row>
     <row r="5" spans="1:193" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
@@ -880,10 +1015,10 @@
       <c r="C5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="6" t="s">
@@ -897,541 +1032,663 @@
       </c>
     </row>
     <row r="6" spans="1:193" ht="130.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9" t="s">
+      <c r="G6" s="8"/>
+      <c r="H6" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:193" s="20" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="18" t="s">
+    <row r="7" spans="1:193" s="18" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-    </row>
-    <row r="8" spans="1:193" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="12" t="s">
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+    </row>
+    <row r="8" spans="1:193" ht="78.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="9" spans="1:193" ht="108" x14ac:dyDescent="0.15">
-      <c r="A9" s="11"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="24" t="s">
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="1:193" ht="99.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="9"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-    </row>
-    <row r="10" spans="1:193" ht="86.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="13" t="s">
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+    </row>
+    <row r="10" spans="1:193" ht="93" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-    </row>
-    <row r="11" spans="1:193" ht="81" x14ac:dyDescent="0.15">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="28" t="s">
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" spans="1:193" ht="91.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="25"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="27" t="s">
+      <c r="F11" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-    </row>
-    <row r="12" spans="1:193" s="14" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="30" t="s">
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+    </row>
+    <row r="12" spans="1:193" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="31" t="s">
+      <c r="E12" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="32" t="s">
+      <c r="F12" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="15"/>
-      <c r="U12" s="15"/>
-      <c r="V12" s="15"/>
-      <c r="W12" s="15"/>
-      <c r="X12" s="15"/>
-      <c r="Y12" s="15"/>
-      <c r="Z12" s="15"/>
-      <c r="AA12" s="15"/>
-      <c r="AB12" s="15"/>
-      <c r="AC12" s="15"/>
-      <c r="AD12" s="15"/>
-      <c r="AE12" s="15"/>
-      <c r="AF12" s="15"/>
-      <c r="AG12" s="15"/>
-      <c r="AH12" s="15"/>
-      <c r="AI12" s="15"/>
-      <c r="AJ12" s="15"/>
-      <c r="AK12" s="15"/>
-      <c r="AL12" s="15"/>
-      <c r="AM12" s="15"/>
-      <c r="AN12" s="15"/>
-      <c r="AO12" s="15"/>
-      <c r="AP12" s="15"/>
-      <c r="AQ12" s="15"/>
-      <c r="AR12" s="15"/>
-      <c r="AS12" s="15"/>
-      <c r="AT12" s="15"/>
-      <c r="AU12" s="15"/>
-      <c r="AV12" s="15"/>
-      <c r="AW12" s="15"/>
-      <c r="AX12" s="15"/>
-      <c r="AY12" s="15"/>
-      <c r="AZ12" s="15"/>
-      <c r="BA12" s="15"/>
-      <c r="BB12" s="15"/>
-      <c r="BC12" s="15"/>
-      <c r="BD12" s="15"/>
-      <c r="BE12" s="15"/>
-      <c r="BF12" s="15"/>
-      <c r="BG12" s="15"/>
-      <c r="BH12" s="15"/>
-      <c r="BI12" s="15"/>
-      <c r="BJ12" s="15"/>
-      <c r="BK12" s="15"/>
-      <c r="BL12" s="15"/>
-      <c r="BM12" s="15"/>
-      <c r="BN12" s="15"/>
-      <c r="BO12" s="15"/>
-      <c r="BP12" s="15"/>
-      <c r="BQ12" s="15"/>
-      <c r="BR12" s="15"/>
-      <c r="BS12" s="15"/>
-      <c r="BT12" s="15"/>
-      <c r="BU12" s="15"/>
-      <c r="BV12" s="15"/>
-      <c r="BW12" s="15"/>
-      <c r="BX12" s="15"/>
-      <c r="BY12" s="15"/>
-      <c r="BZ12" s="15"/>
-      <c r="CA12" s="15"/>
-      <c r="CB12" s="15"/>
-      <c r="CC12" s="15"/>
-      <c r="CD12" s="15"/>
-      <c r="CE12" s="15"/>
-      <c r="CF12" s="15"/>
-      <c r="CG12" s="15"/>
-      <c r="CH12" s="15"/>
-      <c r="CI12" s="15"/>
-      <c r="CJ12" s="15"/>
-      <c r="CK12" s="15"/>
-      <c r="CL12" s="15"/>
-      <c r="CM12" s="15"/>
-      <c r="CN12" s="15"/>
-      <c r="CO12" s="15"/>
-      <c r="CP12" s="15"/>
-      <c r="CQ12" s="15"/>
-      <c r="CR12" s="15"/>
-      <c r="CS12" s="15"/>
-      <c r="CT12" s="15"/>
-      <c r="CU12" s="15"/>
-      <c r="CV12" s="15"/>
-      <c r="CW12" s="15"/>
-      <c r="CX12" s="15"/>
-      <c r="CY12" s="15"/>
-      <c r="CZ12" s="15"/>
-      <c r="DA12" s="15"/>
-      <c r="DB12" s="15"/>
-      <c r="DC12" s="15"/>
-      <c r="DD12" s="15"/>
-      <c r="DE12" s="15"/>
-      <c r="DF12" s="15"/>
-      <c r="DG12" s="15"/>
-      <c r="DH12" s="15"/>
-      <c r="DI12" s="15"/>
-      <c r="DJ12" s="15"/>
-      <c r="DK12" s="15"/>
-      <c r="DL12" s="15"/>
-      <c r="DM12" s="15"/>
-      <c r="DN12" s="15"/>
-      <c r="DO12" s="15"/>
-      <c r="DP12" s="15"/>
-      <c r="DQ12" s="15"/>
-      <c r="DR12" s="15"/>
-      <c r="DS12" s="15"/>
-      <c r="DT12" s="15"/>
-      <c r="DU12" s="15"/>
-      <c r="DV12" s="15"/>
-      <c r="DW12" s="15"/>
-      <c r="DX12" s="15"/>
-      <c r="DY12" s="15"/>
-      <c r="DZ12" s="15"/>
-      <c r="EA12" s="15"/>
-      <c r="EB12" s="15"/>
-      <c r="EC12" s="15"/>
-      <c r="ED12" s="15"/>
-      <c r="EE12" s="15"/>
-      <c r="EF12" s="15"/>
-      <c r="EG12" s="15"/>
-      <c r="EH12" s="15"/>
-      <c r="EI12" s="15"/>
-      <c r="EJ12" s="15"/>
-      <c r="EK12" s="15"/>
-      <c r="EL12" s="15"/>
-      <c r="EM12" s="15"/>
-      <c r="EN12" s="15"/>
-      <c r="EO12" s="15"/>
-      <c r="EP12" s="15"/>
-      <c r="EQ12" s="15"/>
-      <c r="ER12" s="15"/>
-      <c r="ES12" s="15"/>
-      <c r="ET12" s="15"/>
-      <c r="EU12" s="15"/>
-      <c r="EV12" s="15"/>
-      <c r="EW12" s="15"/>
-      <c r="EX12" s="15"/>
-      <c r="EY12" s="15"/>
-      <c r="EZ12" s="15"/>
-      <c r="FA12" s="15"/>
-      <c r="FB12" s="15"/>
-      <c r="FC12" s="15"/>
-      <c r="FD12" s="15"/>
-      <c r="FE12" s="15"/>
-      <c r="FF12" s="15"/>
-      <c r="FG12" s="15"/>
-      <c r="FH12" s="15"/>
-      <c r="FI12" s="15"/>
-      <c r="FJ12" s="15"/>
-      <c r="FK12" s="15"/>
-      <c r="FL12" s="15"/>
-      <c r="FM12" s="15"/>
-      <c r="FN12" s="15"/>
-      <c r="FO12" s="15"/>
-      <c r="FP12" s="15"/>
-      <c r="FQ12" s="15"/>
-      <c r="FR12" s="15"/>
-      <c r="FS12" s="15"/>
-      <c r="FT12" s="15"/>
-      <c r="FU12" s="15"/>
-      <c r="FV12" s="15"/>
-      <c r="FW12" s="15"/>
-      <c r="FX12" s="15"/>
-      <c r="FY12" s="15"/>
-      <c r="FZ12" s="15"/>
-      <c r="GA12" s="15"/>
-      <c r="GB12" s="15"/>
-      <c r="GC12" s="15"/>
-      <c r="GD12" s="15"/>
-      <c r="GE12" s="15"/>
-      <c r="GF12" s="15"/>
-      <c r="GG12" s="15"/>
-      <c r="GH12" s="15"/>
-      <c r="GI12" s="15"/>
-      <c r="GJ12" s="15"/>
-      <c r="GK12" s="15"/>
-    </row>
-    <row r="13" spans="1:193" ht="121.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="24" t="s">
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="13"/>
+      <c r="AA12" s="13"/>
+      <c r="AB12" s="13"/>
+      <c r="AC12" s="13"/>
+      <c r="AD12" s="13"/>
+      <c r="AE12" s="13"/>
+      <c r="AF12" s="13"/>
+      <c r="AG12" s="13"/>
+      <c r="AH12" s="13"/>
+      <c r="AI12" s="13"/>
+      <c r="AJ12" s="13"/>
+      <c r="AK12" s="13"/>
+      <c r="AL12" s="13"/>
+      <c r="AM12" s="13"/>
+      <c r="AN12" s="13"/>
+      <c r="AO12" s="13"/>
+      <c r="AP12" s="13"/>
+      <c r="AQ12" s="13"/>
+      <c r="AR12" s="13"/>
+      <c r="AS12" s="13"/>
+      <c r="AT12" s="13"/>
+      <c r="AU12" s="13"/>
+      <c r="AV12" s="13"/>
+      <c r="AW12" s="13"/>
+      <c r="AX12" s="13"/>
+      <c r="AY12" s="13"/>
+      <c r="AZ12" s="13"/>
+      <c r="BA12" s="13"/>
+      <c r="BB12" s="13"/>
+      <c r="BC12" s="13"/>
+      <c r="BD12" s="13"/>
+      <c r="BE12" s="13"/>
+      <c r="BF12" s="13"/>
+      <c r="BG12" s="13"/>
+      <c r="BH12" s="13"/>
+      <c r="BI12" s="13"/>
+      <c r="BJ12" s="13"/>
+      <c r="BK12" s="13"/>
+      <c r="BL12" s="13"/>
+      <c r="BM12" s="13"/>
+      <c r="BN12" s="13"/>
+      <c r="BO12" s="13"/>
+      <c r="BP12" s="13"/>
+      <c r="BQ12" s="13"/>
+      <c r="BR12" s="13"/>
+      <c r="BS12" s="13"/>
+      <c r="BT12" s="13"/>
+      <c r="BU12" s="13"/>
+      <c r="BV12" s="13"/>
+      <c r="BW12" s="13"/>
+      <c r="BX12" s="13"/>
+      <c r="BY12" s="13"/>
+      <c r="BZ12" s="13"/>
+      <c r="CA12" s="13"/>
+      <c r="CB12" s="13"/>
+      <c r="CC12" s="13"/>
+      <c r="CD12" s="13"/>
+      <c r="CE12" s="13"/>
+      <c r="CF12" s="13"/>
+      <c r="CG12" s="13"/>
+      <c r="CH12" s="13"/>
+      <c r="CI12" s="13"/>
+      <c r="CJ12" s="13"/>
+      <c r="CK12" s="13"/>
+      <c r="CL12" s="13"/>
+      <c r="CM12" s="13"/>
+      <c r="CN12" s="13"/>
+      <c r="CO12" s="13"/>
+      <c r="CP12" s="13"/>
+      <c r="CQ12" s="13"/>
+      <c r="CR12" s="13"/>
+      <c r="CS12" s="13"/>
+      <c r="CT12" s="13"/>
+      <c r="CU12" s="13"/>
+      <c r="CV12" s="13"/>
+      <c r="CW12" s="13"/>
+      <c r="CX12" s="13"/>
+      <c r="CY12" s="13"/>
+      <c r="CZ12" s="13"/>
+      <c r="DA12" s="13"/>
+      <c r="DB12" s="13"/>
+      <c r="DC12" s="13"/>
+      <c r="DD12" s="13"/>
+      <c r="DE12" s="13"/>
+      <c r="DF12" s="13"/>
+      <c r="DG12" s="13"/>
+      <c r="DH12" s="13"/>
+      <c r="DI12" s="13"/>
+      <c r="DJ12" s="13"/>
+      <c r="DK12" s="13"/>
+      <c r="DL12" s="13"/>
+      <c r="DM12" s="13"/>
+      <c r="DN12" s="13"/>
+      <c r="DO12" s="13"/>
+      <c r="DP12" s="13"/>
+      <c r="DQ12" s="13"/>
+      <c r="DR12" s="13"/>
+      <c r="DS12" s="13"/>
+      <c r="DT12" s="13"/>
+      <c r="DU12" s="13"/>
+      <c r="DV12" s="13"/>
+      <c r="DW12" s="13"/>
+      <c r="DX12" s="13"/>
+      <c r="DY12" s="13"/>
+      <c r="DZ12" s="13"/>
+      <c r="EA12" s="13"/>
+      <c r="EB12" s="13"/>
+      <c r="EC12" s="13"/>
+      <c r="ED12" s="13"/>
+      <c r="EE12" s="13"/>
+      <c r="EF12" s="13"/>
+      <c r="EG12" s="13"/>
+      <c r="EH12" s="13"/>
+      <c r="EI12" s="13"/>
+      <c r="EJ12" s="13"/>
+      <c r="EK12" s="13"/>
+      <c r="EL12" s="13"/>
+      <c r="EM12" s="13"/>
+      <c r="EN12" s="13"/>
+      <c r="EO12" s="13"/>
+      <c r="EP12" s="13"/>
+      <c r="EQ12" s="13"/>
+      <c r="ER12" s="13"/>
+      <c r="ES12" s="13"/>
+      <c r="ET12" s="13"/>
+      <c r="EU12" s="13"/>
+      <c r="EV12" s="13"/>
+      <c r="EW12" s="13"/>
+      <c r="EX12" s="13"/>
+      <c r="EY12" s="13"/>
+      <c r="EZ12" s="13"/>
+      <c r="FA12" s="13"/>
+      <c r="FB12" s="13"/>
+      <c r="FC12" s="13"/>
+      <c r="FD12" s="13"/>
+      <c r="FE12" s="13"/>
+      <c r="FF12" s="13"/>
+      <c r="FG12" s="13"/>
+      <c r="FH12" s="13"/>
+      <c r="FI12" s="13"/>
+      <c r="FJ12" s="13"/>
+      <c r="FK12" s="13"/>
+      <c r="FL12" s="13"/>
+      <c r="FM12" s="13"/>
+      <c r="FN12" s="13"/>
+      <c r="FO12" s="13"/>
+      <c r="FP12" s="13"/>
+      <c r="FQ12" s="13"/>
+      <c r="FR12" s="13"/>
+      <c r="FS12" s="13"/>
+      <c r="FT12" s="13"/>
+      <c r="FU12" s="13"/>
+      <c r="FV12" s="13"/>
+      <c r="FW12" s="13"/>
+      <c r="FX12" s="13"/>
+      <c r="FY12" s="13"/>
+      <c r="FZ12" s="13"/>
+      <c r="GA12" s="13"/>
+      <c r="GB12" s="13"/>
+      <c r="GC12" s="13"/>
+      <c r="GD12" s="13"/>
+      <c r="GE12" s="13"/>
+      <c r="GF12" s="13"/>
+      <c r="GG12" s="13"/>
+      <c r="GH12" s="13"/>
+      <c r="GI12" s="13"/>
+      <c r="GJ12" s="13"/>
+      <c r="GK12" s="13"/>
+    </row>
+    <row r="13" spans="1:193" ht="108" x14ac:dyDescent="0.15">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="35" t="s">
+      <c r="E13" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="36" t="s">
+      <c r="F13" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
     </row>
     <row r="14" spans="1:193" ht="145.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="29"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="30" t="s">
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="31" t="s">
+      <c r="E14" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="31" t="s">
+      <c r="F14" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-    </row>
-    <row r="15" spans="1:193" x14ac:dyDescent="0.15">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-    </row>
-    <row r="16" spans="1:193" x14ac:dyDescent="0.15">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+    </row>
+    <row r="15" spans="1:193" ht="78.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+    </row>
+    <row r="16" spans="1:193" ht="78.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+    </row>
+    <row r="17" spans="1:8" ht="78.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+    </row>
+    <row r="18" spans="1:8" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+    </row>
+    <row r="19" spans="1:8" ht="99.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+    </row>
+    <row r="20" spans="1:8" ht="114.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+    </row>
+    <row r="21" spans="1:8" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+    </row>
+    <row r="22" spans="1:8" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="27"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+    </row>
+    <row r="23" spans="1:8" ht="93" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+    </row>
+    <row r="24" spans="1:8" ht="100.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="27"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+    </row>
+    <row r="25" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+    </row>
+    <row r="26" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="27"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+    </row>
+    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+    </row>
+    <row r="28" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" s="15"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A35" s="13"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A37" s="13"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A38" s="13"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A39" s="13"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1439,6 +1696,7 @@
     <hyperlink ref="B4" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/6月/途礼商城/开发环境/结合测试/途礼商城 (购物车-王倩）.xlsx
+++ b/6月/途礼商城/开发环境/结合测试/途礼商城 (购物车-王倩）.xlsx
@@ -241,12 +241,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1.将扬州喜行旅游用品有限公司：梳子添加至购物车
-2.将黄山古诗里生态农业科技园有限公司：猴魁袋泡茶添加至购物车
-3.点击查看按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1.将杨州市飞杰旅游用品有限公司：一次性拖鞋添加至购物车
 2.点击查看按钮
 3.将商品数量随意修改</t>
@@ -346,6 +340,12 @@
   </si>
   <si>
     <t>商品金额/小计/合计显示正确</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.将扬州喜行旅游用品有限公司：梳子添加至购物车
+2.将黄山古诗里生态农业科技园有限公司：猴魁袋泡茶添加至购物车
+3.点击查看按钮</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -956,9 +956,9 @@
   <dimension ref="A1:GK39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1373,7 +1373,7 @@
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
       <c r="D15" s="35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>49</v>
@@ -1389,7 +1389,7 @@
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
       <c r="D16" s="36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E16" s="27" t="s">
         <v>45</v>
@@ -1405,7 +1405,7 @@
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
       <c r="D17" s="35" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>44</v>
@@ -1421,7 +1421,7 @@
       <c r="B18" s="27"/>
       <c r="C18" s="27"/>
       <c r="D18" s="36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E18" s="27" t="s">
         <v>45</v>
@@ -1437,10 +1437,10 @@
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
       <c r="D19" s="35" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F19" s="9" t="s">
         <v>44</v>
@@ -1453,13 +1453,13 @@
       <c r="B20" s="27"/>
       <c r="C20" s="27"/>
       <c r="D20" s="36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F20" s="27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G20" s="27"/>
       <c r="H20" s="27"/>
@@ -1485,13 +1485,13 @@
       <c r="B22" s="27"/>
       <c r="C22" s="27"/>
       <c r="D22" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="E22" s="27" t="s">
-        <v>62</v>
-      </c>
       <c r="F22" s="27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
@@ -1501,10 +1501,10 @@
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
       <c r="D23" s="35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F23" s="9" t="s">
         <v>44</v>
@@ -1517,13 +1517,13 @@
       <c r="B24" s="27"/>
       <c r="C24" s="27"/>
       <c r="D24" s="36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F24" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G24" s="27"/>
       <c r="H24" s="27"/>
@@ -1533,13 +1533,13 @@
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
       <c r="D25" s="35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
@@ -1549,13 +1549,13 @@
       <c r="B26" s="27"/>
       <c r="C26" s="27"/>
       <c r="D26" s="36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F26" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G26" s="27"/>
       <c r="H26" s="27"/>
